--- a/medicine/Enfance/Katharine_Ross/Katharine_Ross.xlsx
+++ b/medicine/Enfance/Katharine_Ross/Katharine_Ross.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Katharine Ross, née le 29 janvier 1940[1] à Hollywood est une actrice et autrice américaine, qui a joué dans de nombreux films comme au théâtre. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katharine Ross, née le 29 janvier 1940 à Hollywood est une actrice et autrice américaine, qui a joué dans de nombreux films comme au théâtre. 
 Elle a eu le rôle principal dans trois des films les plus populaires des années 1960 et 1970 : elle a joué le rôle d’Elaine Robinson dans Le Lauréat (1967), pour lequel elle a reçu une nomination à l’Oscar de la meilleure actrice dans un second rôle ; elle a joué le rôle d’Etta Place dans Butch Cassidy et le Kid (1969), pour lequel elle a gagné un BAFTA (British Academy Film Award) de la meilleure actrice ; et elle a joué le rôle de Joanna Eberhart dans Les femmes de Stepford.  
 Elle a remporté un Golden Globe pour son rôle dans Le Voyage des damnés en 1976.
 </t>
@@ -515,31 +527,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesses et premières années
-Katharine Juliet Ross est née le 29 janvier 1940 à Hollywood, en Californie, le 29 janvier 1940 alors que son père, Dudley Ross, était dans la marine. Il avait aussi travaillé pour l'agence de presse américaine Associated Press.  
-Sa famille s’est installée un peu plus tard à Walnut Creek, en Californie, à l’est de San Francisco, et elle a obtenu son diplôme au lycée de Las Lomas (en) en 1957. Ross était une cavalière passionnée durant sa jeunesse[2] et était amie avec Casey Tibbs, qui était passionné par les rodéos[3].
+          <t>Jeunesses et premières années</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katharine Juliet Ross est née le 29 janvier 1940 à Hollywood, en Californie, le 29 janvier 1940 alors que son père, Dudley Ross, était dans la marine. Il avait aussi travaillé pour l'agence de presse américaine Associated Press.  
+Sa famille s’est installée un peu plus tard à Walnut Creek, en Californie, à l’est de San Francisco, et elle a obtenu son diplôme au lycée de Las Lomas (en) en 1957. Ross était une cavalière passionnée durant sa jeunesse et était amie avec Casey Tibbs, qui était passionné par les rodéos.
 Elle a étudié à l'université de Santa Rosa Junior (en) pendant un an (1957-1958) où elle a découvert le métier d’actrice grâce à une mise en scène de Le Roi et moi.  
-Elle a quitté l’université et a déménagé à San Francisco pour étudier la comédie. Elle a rejoint The Actors Workshop, un programme prestigieux du sud de la Californie et elle y est restée pendant trois ans (1959-1962)[4],[5], y travaillant en tant que doublure. Elle est apparue nue sur scène pour un rôle dans Le Balcon de Jean Genet.
-En 1964, elle a été choisie par John Houseman pour jouer le rôle de Cordelia dans une mise en scène de la pièce Le Roi Lear[6],[7]. Durant son séjour à The Actors Workshop, elle a commencé à jouer de petits rôles dans des séries télévisées tournées à Los Angeles afin d’arrondir ses fins de mois[2].  
-C’est le studio Metro-Goldwyn-Mayer qui lui a permis de se rendre à Hollywood. Après une rupture de contrat avec ce studio, elle a travaillé avec Universal[8].
-Carrière
-Ross a tenté sans succès d’obtenir un rôle dans West Side Story (1961)[9] ; son premier rôle à la télévision a été dans Sam Benedict en 1962[4]. Elle a ensuite été prise en charge par l’agent Wally Hiller et en 1964[10], Ross est apparue dans des épisodes de séries telles que Arrest and Trial (en), Le Virginien et Gunsmoke.
-Elle a passé une audition pour The Young Lovers (en) et a obtenu son premier rôle dans un film avec Les Prairies de l'honneur. En 1966, elle a obtenu un des rôles principaux de Mister Buddwing avec la MGM et a donné la réplique à James Garner. Elle est aussi apparue dans l'épisode To Light a Candle de la série télévisée The Road West (en), un western avec Barry Sullivan produit par la NBC.
-Succès publics, télévision et théâtre
-En 1967 elle a joué dans le film Le Diable à trois[2]. Ross a connu un grand succès grâce à ses rôles dans deux des films devenu des classiques du cinéma. Elle  incarne Elaine Robinson dans Le Lauréat (1967) face à Dustin Hoffman et elle tient également le rôle d’Etta Place dans Butch Cassidy et le Kid (1969) aux côtés de Paul Newman et Robert Redford[11].
-Après avoir joué le rôle de la petite amie de Dustin Hoffman dans Le Lauréat, rôle pour lequel elle a obtenu une nomination aux Oscars[12] et un Golden Globe en tant que révélation féminine de l’année, elle a déclaré, « Je ne suis pas une star de cinéma... ce système est à l’agonie et j’aimerais bien l’aider à disparaître. »[2].   
-Ross a ainsi refusé de nombreux rôles, puis a fini par accepter de jouer dans Butch Cassidy et le Kid. Après cela, elle a refusé de nombreux autres rôles, notamment un rôle dans La Tour infernale[13]. Elle a perdu son contrat avec Universal au printemps 1969 pour avoir refusé de jouer une hôtesse de l’air dans Airport. 
-Préférant les planches, Ross est retournée à Los Angeles a joué dans de petits théâtres durant la plus grande partie des années 1970[14]. L’un de ses rôles les plus connus de cette période a été Les femmes de Stepford en 1975 pour lequel elle a remporté le Saturn Award[15] de la meilleure actrice. 
-Elle a à nouveau incarné Etta Place dans un téléfilm de 1976, On recherche la femme de Sundance[11]. Elle a remporté le Golden Globe de la meilleure actrice dans un second rôle pour avoir joué dans le film Le Voyage des damnés en 1976[16].
-Elle a joué dans de nombreux téléfilms[17] comme Murder by Natural Causes en 1979 avec Hal Holbrook, Barry Bostwick et Richard Anderson[18], Rodeo Girl in 1980[19], Les feux de la passion en 1981[20] avec Sam Eliott et Farrah Fawcett et elle a joué dans la série Dynastie 2 : Les Colby en incarnant Francesca Scott Colby[21] aux côtés de Charlton Heston. 
-Beaucoup moins présente publiquement à partir des années 1990, elle interprète le rôle de la thérapeute de Donnie dans le film Donnie Darko en 2001, ainsi qu'une voix pour la série animée American Dad! en 2016. 
-Ross a aussi publié plusieurs livres pour enfants.
-Vie privée
-L’actrice a été mariée à cinq reprises. Son premier mariage a été avec l’acteur Joel Fabiani[5], de 1960 à 1962. 
-Elle a ensuite été mariée à John Marion de 1964 à 1967[22]. 
-En 1969, Ross a épousé le directeur de la photographie Conrad Hall qui a remporté trois Oscars. Ils se sont rencontrés sur le plateau de Butch Cassidy et le Kid et se sont séparés en 1973. 
-Elle a été mariée à Gaetano « Tom » Lisi de 1975 à 1979 qu’elle a rencontré pendant qu’elle jouait la pièce Les femmes de Stepford.
-Ross est ensuite mariée à l’acteur Sam Elliott qu’elle a lui aussi rencontré en 1969 sur le tournage de Butch Cassidy et le Kid. Le couple s’est retrouvé sur le tournage de Psychose phase 3 (1978). C’est en mai 1984 qu’ils se marient, quatre mois avant la naissance de leur seul enfant, leur fille Cleo Rose Elliott[23],[24].
+Elle a quitté l’université et a déménagé à San Francisco pour étudier la comédie. Elle a rejoint The Actors Workshop, un programme prestigieux du sud de la Californie et elle y est restée pendant trois ans (1959-1962) y travaillant en tant que doublure. Elle est apparue nue sur scène pour un rôle dans Le Balcon de Jean Genet.
+En 1964, elle a été choisie par John Houseman pour jouer le rôle de Cordelia dans une mise en scène de la pièce Le Roi Lear,. Durant son séjour à The Actors Workshop, elle a commencé à jouer de petits rôles dans des séries télévisées tournées à Los Angeles afin d’arrondir ses fins de mois.  
+C’est le studio Metro-Goldwyn-Mayer qui lui a permis de se rendre à Hollywood. Après une rupture de contrat avec ce studio, elle a travaillé avec Universal.
 </t>
         </is>
       </c>
@@ -565,13 +564,141 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ross a tenté sans succès d’obtenir un rôle dans West Side Story (1961) ; son premier rôle à la télévision a été dans Sam Benedict en 1962. Elle a ensuite été prise en charge par l’agent Wally Hiller et en 1964, Ross est apparue dans des épisodes de séries telles que Arrest and Trial (en), Le Virginien et Gunsmoke.
+Elle a passé une audition pour The Young Lovers (en) et a obtenu son premier rôle dans un film avec Les Prairies de l'honneur. En 1966, elle a obtenu un des rôles principaux de Mister Buddwing avec la MGM et a donné la réplique à James Garner. Elle est aussi apparue dans l'épisode To Light a Candle de la série télévisée The Road West (en), un western avec Barry Sullivan produit par la NBC.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Katharine_Ross</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katharine_Ross</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Succès publics, télévision et théâtre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1967 elle a joué dans le film Le Diable à trois. Ross a connu un grand succès grâce à ses rôles dans deux des films devenu des classiques du cinéma. Elle  incarne Elaine Robinson dans Le Lauréat (1967) face à Dustin Hoffman et elle tient également le rôle d’Etta Place dans Butch Cassidy et le Kid (1969) aux côtés de Paul Newman et Robert Redford.
+Après avoir joué le rôle de la petite amie de Dustin Hoffman dans Le Lauréat, rôle pour lequel elle a obtenu une nomination aux Oscars et un Golden Globe en tant que révélation féminine de l’année, elle a déclaré, « Je ne suis pas une star de cinéma... ce système est à l’agonie et j’aimerais bien l’aider à disparaître. ».   
+Ross a ainsi refusé de nombreux rôles, puis a fini par accepter de jouer dans Butch Cassidy et le Kid. Après cela, elle a refusé de nombreux autres rôles, notamment un rôle dans La Tour infernale. Elle a perdu son contrat avec Universal au printemps 1969 pour avoir refusé de jouer une hôtesse de l’air dans Airport. 
+Préférant les planches, Ross est retournée à Los Angeles a joué dans de petits théâtres durant la plus grande partie des années 1970. L’un de ses rôles les plus connus de cette période a été Les femmes de Stepford en 1975 pour lequel elle a remporté le Saturn Award de la meilleure actrice. 
+Elle a à nouveau incarné Etta Place dans un téléfilm de 1976, On recherche la femme de Sundance. Elle a remporté le Golden Globe de la meilleure actrice dans un second rôle pour avoir joué dans le film Le Voyage des damnés en 1976.
+Elle a joué dans de nombreux téléfilms comme Murder by Natural Causes en 1979 avec Hal Holbrook, Barry Bostwick et Richard Anderson, Rodeo Girl in 1980, Les feux de la passion en 1981 avec Sam Eliott et Farrah Fawcett et elle a joué dans la série Dynastie 2 : Les Colby en incarnant Francesca Scott Colby aux côtés de Charlton Heston. 
+Beaucoup moins présente publiquement à partir des années 1990, elle interprète le rôle de la thérapeute de Donnie dans le film Donnie Darko en 2001, ainsi qu'une voix pour la série animée American Dad! en 2016. 
+Ross a aussi publié plusieurs livres pour enfants.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Katharine_Ross</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katharine_Ross</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’actrice a été mariée à cinq reprises. Son premier mariage a été avec l’acteur Joel Fabiani, de 1960 à 1962. 
+Elle a ensuite été mariée à John Marion de 1964 à 1967. 
+En 1969, Ross a épousé le directeur de la photographie Conrad Hall qui a remporté trois Oscars. Ils se sont rencontrés sur le plateau de Butch Cassidy et le Kid et se sont séparés en 1973. 
+Elle a été mariée à Gaetano « Tom » Lisi de 1975 à 1979 qu’elle a rencontré pendant qu’elle jouait la pièce Les femmes de Stepford.
+Ross est ensuite mariée à l’acteur Sam Elliott qu’elle a lui aussi rencontré en 1969 sur le tournage de Butch Cassidy et le Kid. Le couple s’est retrouvé sur le tournage de Psychose phase 3 (1978). C’est en mai 1984 qu’ils se marient, quatre mois avant la naissance de leur seul enfant, leur fille Cleo Rose Elliott,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Katharine_Ross</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katharine_Ross</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cinéma
-1965 : Les Prairies de l'honneur (Shenandoah), d'Andrew V. McLaglen : Mme Ann Anderson
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1965 : Les Prairies de l'honneur (Shenandoah), d'Andrew V. McLaglen : Mme Ann Anderson
 1966 : Dominique (The Singing Nun), d'Henry Koster : Nicole Arlien
 1966 : Mister Buddwing, de Delbert Mann : Janet / Grace #1
 1967 : Le Diable à trois (Games), de Curtis Harrington : Jennifer Montgomery
@@ -595,9 +722,43 @@
 1997 : Home Before Dark de Maureen Foley : Rose
 2001 : Donnie Darko, de Richard Kelly : Dr Lilian Thurman
 2002 : Don't Let Go (en), de Max Myers : Charlene Stevens
-2017 : The Hero, de Brett Haley : Valarie Hayden
-Télévision
-1963 : Sam Benedict (en), de Lamont Johnson (série télévisée) : Teresa Parrelli (Saison 1, Épisode 2 "A Split Week in San Quentin")
+2017 : The Hero, de Brett Haley : Valarie Hayden</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Katharine_Ross</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katharine_Ross</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1963 : Sam Benedict (en), de Lamont Johnson (série télévisée) : Teresa Parrelli (Saison 1, Épisode 2 "A Split Week in San Quentin")
 1963 : Kraft Suspense Theatre, d'Elliot Silverstein (série télévisée) : Janet Bollington (Saison 1, Épisode 5 "Are There Any More Out There Like You?")
 1963 : The Lieutenant, de John Brahm (série télévisée) : Elizabeth (Saison 1, Épisode 11 "Fall from a White Horse")
 1963 : Suspicion (The Alfred Hitchcock Hour), de Bernard Girard (TV) : Carol Brandt (Saison 2, Épisode 9 "The Dividing Wall")
@@ -635,35 +796,72 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Katharine_Ross</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Katharine_Ross</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les informations ci-après sont extraites de l’Internet Movie Database.
-Nominations
-British Academy Film Awards
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les informations ci-après sont extraites de l’Internet Movie Database.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Katharine_Ross</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katharine_Ross</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>British Academy Film Awards
 1969 : BAFTA Awards du meilleur nouveau venu dans un rôle principal pour Le Lauréat
 Golden Globes
 1968 : Golden Globes de la révélation féminine de l'année pour Le Lauréat
@@ -671,9 +869,43 @@
 1970 : Golden Laurel actrice 11e place
 1971 : Golden Laurel actrice 5e place
 Oscar du cinéma
-1968 : Oscar de la meilleure actrice dans un second rôle pour Le Lauréat
-Récompenses
-Académie des films de science-fiction, fantastique et horreur
+1968 : Oscar de la meilleure actrice dans un second rôle pour Le Lauréat</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Katharine_Ross</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Katharine_Ross</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Académie des films de science-fiction, fantastique et horreur
 1979 : Saturn Award de la meilleure actrice pour Les Femmes de Stepford
 British Academy Film Awards
 1971 : BAFTA Awards de la meilleure actrice pour les films Butch Cassidy et le Kid et Willie Boy
